--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -69,6 +69,12 @@
   </x:si>
   <x:si>
     <x:t>Akbar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>idanlevi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6765</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -512,6 +518,14 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -75,6 +75,18 @@
   </x:si>
   <x:si>
     <x:t>6765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elizaveta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lizavainer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tester</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -526,6 +538,22 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -87,6 +87,9 @@
   </x:si>
   <x:si>
     <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
 </x:sst>
 </file>
@@ -554,6 +557,14 @@
         <x:v>21</x:v>
       </x:c>
     </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -89,7 +89,7 @@
     <x:t>test</x:t>
   </x:si>
   <x:si>
-    <x:t/>
+    <x:t>11</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -1,22 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natan\OneDrive\Documents\GitHub\NoWAS\WinFormsApp1\WinFormsApp1\bin\Debug\net8.0-windows\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD64746-1F23-4849-A802-42919CAF3E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Users" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Users" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="0"/>
+  <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
@@ -31,76 +24,17 @@
   <x:si>
     <x:t>Nathan</x:t>
   </x:si>
-  <x:si>
-    <x:t>Boss</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hello</x:t>
-  </x:si>
-  <x:si>
-    <x:t>There</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hELLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tHERE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dfddf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dfdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>blblbblblb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>blbbllbb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BroB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brob</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Allah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Akbar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>idanlevi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6765</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elizaveta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lizavainer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tester</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
+  <x:fonts count="1">
     <x:font>
+      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -116,32 +50,38 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -429,23 +369,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:B1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2"/>
-    </x:sheetView>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <x:cols>
-    <x:col min="1" max="1" width="16.816406" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <x:row r="1" spans="1:2">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -461,110 +395,6 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="A14" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="A15" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -22,7 +22,37 @@
     <x:t>Password</x:t>
   </x:si>
   <x:si>
-    <x:t>Nathan</x:t>
+    <x:t>Hello</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dsd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdsds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdssd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dddd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ddd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dfddfdfd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dfdff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>עעעעעעעע</x:t>
+  </x:si>
+  <x:si>
+    <x:t>עעעעעע</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -395,6 +425,46 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -53,6 +53,9 @@
   </x:si>
   <x:si>
     <x:t>עעעעעע</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -465,6 +468,14 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -476,6 +476,14 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -56,6 +56,24 @@
   </x:si>
   <x:si>
     <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zechaad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234%z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zechariah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -484,6 +502,30 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -56,6 +56,18 @@
   </x:si>
   <x:si>
     <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testliz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testproft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -484,6 +496,30 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -68,6 +68,12 @@
   </x:si>
   <x:si>
     <x:t>test1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zechariah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -520,6 +526,14 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -74,6 +74,12 @@
   </x:si>
   <x:si>
     <x:t>1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -534,6 +540,22 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -80,6 +80,9 @@
   </x:si>
   <x:si>
     <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
 </x:sst>
 </file>
@@ -556,6 +559,14 @@
         <x:v>21</x:v>
       </x:c>
     </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -82,7 +82,7 @@
     <x:t>33</x:t>
   </x:si>
   <x:si>
-    <x:t/>
+    <x:t>zecha</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -564,7 +564,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -20,69 +20,6 @@
   </x:si>
   <x:si>
     <x:t>Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hello</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dsd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sdsds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sdssd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dddd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ddd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dfddfdfd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dfdff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>עעעעעעעע</x:t>
-  </x:si>
-  <x:si>
-    <x:t>עעעעעע</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>testliz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>testproft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zechariah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zecha</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -447,126 +384,6 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="A14" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="A15" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
-      <x:c r="A16" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -20,6 +20,42 @@
   </x:si>
   <x:si>
     <x:t>Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testA11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testA11,11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AAAA1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AAAAAAAA1,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nathan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andgame1!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lizTest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LizTest1!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LizTest2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LizTest2!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LizTester</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LizTest3!</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -384,6 +420,54 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -56,6 +56,12 @@
   </x:si>
   <x:si>
     <x:t>LizTest3!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zech12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zech123!</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -468,6 +474,14 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -56,6 +56,18 @@
   </x:si>
   <x:si>
     <x:t>LizTest3!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ShonJob1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test1!!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habuf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habuf12!</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -468,6 +480,22 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -68,6 +68,12 @@
   </x:si>
   <x:si>
     <x:t>Habuf12!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aviv12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aviv123!</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -496,6 +502,14 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -74,6 +74,18 @@
   </x:si>
   <x:si>
     <x:t>aviv123!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Idan29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Idan2929,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David2929,</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -510,6 +522,22 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -86,6 +86,12 @@
   </x:si>
   <x:si>
     <x:t>David2929,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DeezNutz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestJob1!</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -538,6 +544,14 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -86,6 +86,9 @@
   </x:si>
   <x:si>
     <x:t>David2929,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LizTest1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -538,6 +541,14 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -92,6 +92,9 @@
   </x:si>
   <x:si>
     <x:t>TestJob1!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aviv14</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -552,6 +555,14 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -95,6 +95,18 @@
   </x:si>
   <x:si>
     <x:t>aviv14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zech11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zech123!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zechar23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zech1234!</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -563,6 +575,22 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -107,6 +107,12 @@
   </x:si>
   <x:si>
     <x:t>Zech1234!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aviv23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aviv123!</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -591,6 +597,14 @@
         <x:v>30</x:v>
       </x:c>
     </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/Info.xlsx
@@ -113,6 +113,9 @@
   </x:si>
   <x:si>
     <x:t>Aviv123!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LizProff</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -605,6 +608,14 @@
         <x:v>32</x:v>
       </x:c>
     </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
